--- a/graphs/feature_importance.xlsx
+++ b/graphs/feature_importance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24426"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Unconsolidated" sheetId="1" r:id="rId1"/>
@@ -654,7 +654,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -683,6 +682,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Feature Importances for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Random Forests Regressor</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1235,7 +1258,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1556,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
